--- a/Data/Output/ExtractedInvoice_Data.xlsx
+++ b/Data/Output/ExtractedInvoice_Data.xlsx
@@ -1,39 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgsinc1-my.sharepoint.com/personal/hvrthotapalli_cgsinc_com/Documents/Documents/UiPath/InvoiceData_Extraction_Process_REF/Data/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_31EA5BE0D5651520D4AAE31CD945893D7DEA3A13" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DE735066-284D-4EEF-9F86-2DFE785AAB0C}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_981B1D6AFE9EC6B7E6FE1F0481601723FF45C807" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B80326C5-1A77-48E6-8335-8267CBD86F59}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="InvoiceData" sheetId="2" r:id="rId1"/>
+    <sheet name="Data_Input_80003658-tps_pdf" sheetId="2" r:id="rId1"/>
+    <sheet name="Data_Input_800039583-zane_pdf" sheetId="5" r:id="rId2"/>
+    <sheet name="Data_Input_80040777-seaf_pdf" sheetId="7" r:id="rId3"/>
+    <sheet name="Data_Input_80040778-rail_pdf" sheetId="8" r:id="rId4"/>
+    <sheet name="Data_Input_80064639-seaf_pdf" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="209">
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Company Name - Confidence</t>
+  </si>
+  <si>
+    <t>Company Address</t>
+  </si>
+  <si>
+    <t>Company Address - Confidence</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Invoice Number - Confidence</t>
+  </si>
+  <si>
+    <t>Invoice Date</t>
+  </si>
+  <si>
+    <t>Invoice Date - Confidence</t>
+  </si>
+  <si>
+    <t>Bill To</t>
+  </si>
+  <si>
+    <t>Bill To - Confidence</t>
+  </si>
+  <si>
+    <t>Ship To</t>
+  </si>
+  <si>
+    <t>Ship To - Confidence</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total - Confidence</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Balance - Confidence</t>
+  </si>
   <si>
     <t>TASHA POLIZZI FOR T.P. SADDLE</t>
   </si>
   <si>
-    <t>0.9494569</t>
-  </si>
-  <si>
     <t>T.P. SADDLEBLANKET INC. 287 MAIN STREET GT. BARRINGTON. MA 01230 USA</t>
   </si>
   <si>
-    <t>0.42253</t>
-  </si>
-  <si>
     <t>065279</t>
   </si>
   <si>
@@ -55,18 +101,12 @@
     <t>478.26</t>
   </si>
   <si>
-    <t>0.6961074</t>
-  </si>
-  <si>
-    <t>0.9570005</t>
+    <t>0.6961073</t>
   </si>
   <si>
     <t>287 MAIN STREET GT. BARRINGTON, MA 01230 USA</t>
   </si>
   <si>
-    <t>0.9074048</t>
-  </si>
-  <si>
     <t>065280</t>
   </si>
   <si>
@@ -88,13 +128,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>0.6808457</t>
-  </si>
-  <si>
-    <t>0.9525918</t>
-  </si>
-  <si>
-    <t>0.4166733</t>
+    <t>0.6808455</t>
   </si>
   <si>
     <t>361085</t>
@@ -127,45 +161,36 @@
     <t>0.5332168</t>
   </si>
   <si>
-    <t>0.9589957</t>
-  </si>
-  <si>
-    <t>0.9309229</t>
+    <t>T.P. 287 MAIN STREET GT. BARRINGTON, MA 01230 USA</t>
   </si>
   <si>
     <t>361094</t>
   </si>
   <si>
-    <t>0.9589088</t>
+    <t>0.9591849</t>
   </si>
   <si>
     <t>One Terminal Dr. Ste. 973 Nashville, TN 37214 USA</t>
   </si>
   <si>
-    <t>0.8572637</t>
+    <t>0.8286782</t>
   </si>
   <si>
     <t>Spirit-Red Horse #5 Nashville Intl Airport One Terminal Dr. Ste. 973 Nashville, TN 37214 USA</t>
   </si>
   <si>
-    <t>0.9762846</t>
+    <t>0.9756555</t>
   </si>
   <si>
     <t>2699.00</t>
   </si>
   <si>
-    <t>0.7709593</t>
-  </si>
-  <si>
-    <t>0.9523934</t>
+    <t>0.6952398</t>
   </si>
   <si>
     <t>T.P. SADDLEBLANKET INC. 287 MAIN STREET GT. BARRINGTON, MA 01230 USA</t>
   </si>
   <si>
-    <t>0.4056056</t>
-  </si>
-  <si>
     <t>065277</t>
   </si>
   <si>
@@ -175,7 +200,7 @@
     <t>2018-09-25</t>
   </si>
   <si>
-    <t>0.5334731</t>
+    <t>0.5334728</t>
   </si>
   <si>
     <t>1380 Wisconsin Ave Whitefish, MT 59937 USA</t>
@@ -193,16 +218,7 @@
     <t>942.15</t>
   </si>
   <si>
-    <t>0.5232933</t>
-  </si>
-  <si>
-    <t>0.9627414</t>
-  </si>
-  <si>
-    <t>T.P. 287 MAIN STREET GT. BARRINGTON, MA 01230 USA</t>
-  </si>
-  <si>
-    <t>0.6911136</t>
+    <t>0.523293</t>
   </si>
   <si>
     <t>065278</t>
@@ -226,13 +242,7 @@
     <t>15836.00</t>
   </si>
   <si>
-    <t>0.7518091</t>
-  </si>
-  <si>
-    <t>0.9410844</t>
-  </si>
-  <si>
-    <t>0.4372853</t>
+    <t>0.751809</t>
   </si>
   <si>
     <t>361081</t>
@@ -259,14 +269,401 @@
     <t>156.00</t>
   </si>
   <si>
-    <t>0.4786814</t>
+    <t>0.4786813</t>
+  </si>
+  <si>
+    <t>ZANEROBE Cory Vines Inc dba</t>
+  </si>
+  <si>
+    <t>0.9198373</t>
+  </si>
+  <si>
+    <t>Zanerobe USA 55 rue de Louvain Ouest Suite 200 Montreal DC H2N 1A4</t>
+  </si>
+  <si>
+    <t>0.8984146</t>
+  </si>
+  <si>
+    <t>E0117072</t>
+  </si>
+  <si>
+    <t>0.8971902</t>
+  </si>
+  <si>
+    <t>2019-05-30</t>
+  </si>
+  <si>
+    <t>0.8880585</t>
+  </si>
+  <si>
+    <t>145 PROGRESS PLACE</t>
+  </si>
+  <si>
+    <t>0.9556088</t>
+  </si>
+  <si>
+    <t>70.92</t>
+  </si>
+  <si>
+    <t>0.92921</t>
+  </si>
+  <si>
+    <t>0.8403034</t>
+  </si>
+  <si>
+    <t>ZANEROBE Cory Vines Inc. dba</t>
+  </si>
+  <si>
+    <t>0.8977459</t>
+  </si>
+  <si>
+    <t>Zanerobe USA 55 rue de Louvain Ouest BLOOMINGDA_ES Suite 200 Montreal QC H2N 1A4</t>
+  </si>
+  <si>
+    <t>0.7307187</t>
+  </si>
+  <si>
+    <t>EDI17071</t>
+  </si>
+  <si>
+    <t>0.9346123</t>
+  </si>
+  <si>
+    <t>0.9006197</t>
+  </si>
+  <si>
+    <t>0.8908607</t>
+  </si>
+  <si>
+    <t>0.8469131</t>
+  </si>
+  <si>
+    <t>0.8539955</t>
+  </si>
+  <si>
+    <t>0.9004628</t>
+  </si>
+  <si>
+    <t>Zanerooe USA 55 rue de Louvain Ouest Suite 200 Montreal QC H2N 1A4</t>
+  </si>
+  <si>
+    <t>0.8753493</t>
+  </si>
+  <si>
+    <t>EDI17067</t>
+  </si>
+  <si>
+    <t>0.9483605</t>
+  </si>
+  <si>
+    <t>0.9112701</t>
+  </si>
+  <si>
+    <t>0.8538181</t>
+  </si>
+  <si>
+    <t>88.56</t>
+  </si>
+  <si>
+    <t>0.9223632</t>
+  </si>
+  <si>
+    <t>0.8622264</t>
+  </si>
+  <si>
+    <t>0.8860317</t>
+  </si>
+  <si>
+    <t>Zanerobe USA 55 rue de Louvain Ouest Suite 200 Montreal QC H2N 1A4</t>
+  </si>
+  <si>
+    <t>0.7982534</t>
+  </si>
+  <si>
+    <t>ED 117066</t>
+  </si>
+  <si>
+    <t>0.8158432</t>
+  </si>
+  <si>
+    <t>0.9067665</t>
+  </si>
+  <si>
+    <t>145 ROGRESS PLACE</t>
+  </si>
+  <si>
+    <t>0.8952262</t>
+  </si>
+  <si>
+    <t>212.76</t>
+  </si>
+  <si>
+    <t>0.8477193</t>
+  </si>
+  <si>
+    <t>0.8814192</t>
+  </si>
+  <si>
+    <t>ZANERO Cory Vines Inc. dba</t>
+  </si>
+  <si>
+    <t>0.9279668</t>
+  </si>
+  <si>
+    <t>55 rue de Louvain Ouest BLOOMING DALES Suite 200 Montreal QC H2N 1A4</t>
+  </si>
+  <si>
+    <t>0.7680291</t>
+  </si>
+  <si>
+    <t>EDI16972</t>
+  </si>
+  <si>
+    <t>0.9357312</t>
+  </si>
+  <si>
+    <t>2019-05-17</t>
+  </si>
+  <si>
+    <t>0.9029623</t>
+  </si>
+  <si>
+    <t>145 PROGRESS PACE</t>
+  </si>
+  <si>
+    <t>0.8544736</t>
+  </si>
+  <si>
+    <t>248.76</t>
+  </si>
+  <si>
+    <t>0.8259984</t>
+  </si>
+  <si>
+    <t>0.8640344</t>
+  </si>
+  <si>
+    <t>0.9169386</t>
+  </si>
+  <si>
+    <t>0.9061179</t>
+  </si>
+  <si>
+    <t>EDI16904</t>
+  </si>
+  <si>
+    <t>0.9694361</t>
+  </si>
+  <si>
+    <t>2019-05-10</t>
+  </si>
+  <si>
+    <t>0.9135606</t>
+  </si>
+  <si>
+    <t>0.9644431</t>
+  </si>
+  <si>
+    <t>141.84</t>
+  </si>
+  <si>
+    <t>0.9206832</t>
+  </si>
+  <si>
+    <t>0.8542326</t>
+  </si>
+  <si>
+    <t>Seat()Ily (US) LLC</t>
+  </si>
+  <si>
+    <t>0.9714079</t>
+  </si>
+  <si>
+    <t>225W 35th Street, New York NY USA 10001</t>
+  </si>
+  <si>
+    <t>0.9792118</t>
+  </si>
+  <si>
+    <t>103589</t>
+  </si>
+  <si>
+    <t>0.9674106</t>
+  </si>
+  <si>
+    <t>2019-11-11</t>
+  </si>
+  <si>
+    <t>0.6613694</t>
+  </si>
+  <si>
+    <t>1201 ELM STREE1. SUITE 2000 DALLAS TX 75270 UNITED STATES</t>
+  </si>
+  <si>
+    <t>0.8626634</t>
+  </si>
+  <si>
+    <t>NEIMAN MARCUS MAIN ACCOUN I NEIMAN MARCUS DIRECT-WHS-7088 113 CUSTOMER WAY IRVING TX 75039 UNITED STATES</t>
+  </si>
+  <si>
+    <t>0.934</t>
+  </si>
+  <si>
+    <t>3516.80</t>
+  </si>
+  <si>
+    <t>0.5298538</t>
+  </si>
+  <si>
+    <t>4396.00</t>
+  </si>
+  <si>
+    <t>0.6548109</t>
+  </si>
+  <si>
+    <t>Rails International, LLC</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>2301 East 51st St Vernon, CA 90058 ph: 213-745-6312/fax: 213-745-6678 email: info@railsclothing.com</t>
+  </si>
+  <si>
+    <t>0.7895427</t>
+  </si>
+  <si>
+    <t>173942</t>
+  </si>
+  <si>
+    <t>11/26/19</t>
+  </si>
+  <si>
+    <t>Neiman Marcus - DropShip 1201 ELM Street Suite 2000 Dallas TX, US Ph: 214-761-2515</t>
+  </si>
+  <si>
+    <t>Neiman Marcus - DropShip 1201 ELM Street Suite 2000 Dallas TX, US</t>
+  </si>
+  <si>
+    <t>0.7969162</t>
+  </si>
+  <si>
+    <t>$2,722.09</t>
+  </si>
+  <si>
+    <t>Hilldun Corporation</t>
+  </si>
+  <si>
+    <t>0.7687894</t>
+  </si>
+  <si>
+    <t>225 West 35th Street 10th Floor New York, NY 10001</t>
+  </si>
+  <si>
+    <t>0.9039342</t>
+  </si>
+  <si>
+    <t>51037.87</t>
+  </si>
+  <si>
+    <t>0.5936418</t>
+  </si>
+  <si>
+    <t>Seafolly (US) LLC HILLDUN</t>
+  </si>
+  <si>
+    <t>0.6982275</t>
+  </si>
+  <si>
+    <t>CORPORATION 225W. 35th Street. New York</t>
+  </si>
+  <si>
+    <t>0.6981191</t>
+  </si>
+  <si>
+    <t>94371</t>
+  </si>
+  <si>
+    <t>0.9583399</t>
+  </si>
+  <si>
+    <t>2018-02-14</t>
+  </si>
+  <si>
+    <t>0.6449409</t>
+  </si>
+  <si>
+    <t>227 E LOUISIANA MCKINNEY TX 75069 UNITED STATES</t>
+  </si>
+  <si>
+    <t>0.8467919</t>
+  </si>
+  <si>
+    <t>CD SPORTS LTD T/A CLIMATE 5258 Monahans Ave FT.WORTH TX 76109 UNITED STATES</t>
+  </si>
+  <si>
+    <t>0.9500938</t>
+  </si>
+  <si>
+    <t>1037.87</t>
+  </si>
+  <si>
+    <t>0.8948827</t>
+  </si>
+  <si>
+    <t>1092.50</t>
+  </si>
+  <si>
+    <t>0.7966686</t>
+  </si>
+  <si>
+    <t>Seafolly (US) LLC HILLDUN CORPORATION</t>
+  </si>
+  <si>
+    <t>0.672029</t>
+  </si>
+  <si>
+    <t>0.9633207</t>
+  </si>
+  <si>
+    <t>94025</t>
+  </si>
+  <si>
+    <t>0.9487711</t>
+  </si>
+  <si>
+    <t>405-417 S FORT LAUDERDALE BEACH BLVD FT LAUDERDALE L 33316 UNITED STATES</t>
+  </si>
+  <si>
+    <t>0.7767062</t>
+  </si>
+  <si>
+    <t>BIKINI KEY 1261 GULF BLVD. UNIT 103 CLEARWATER BEACH FL 33767 UNITED STATES</t>
+  </si>
+  <si>
+    <t>0.9471969</t>
+  </si>
+  <si>
+    <t>2234.00</t>
+  </si>
+  <si>
+    <t>0.5595899</t>
+  </si>
+  <si>
+    <t>0.8489943</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -291,14 +688,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -598,31 +998,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="76.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -641,86 +1043,92 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.94945690000000005</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.42253010000000002</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
+      <c r="B3" s="1">
+        <v>0.95700050000000003</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.90740469999999995</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
         <v>28</v>
       </c>
       <c r="I3" t="s">
@@ -742,23 +1150,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.95259179999999999</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.41667330000000002</v>
+      </c>
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>38</v>
       </c>
       <c r="I4" t="s">
@@ -780,130 +1194,978 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.95778839999999998</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.68247519999999995</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.95239339999999995</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.40560580000000002</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.96274139999999997</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.69111370000000005</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.94108440000000004</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.43728529999999999</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N4" t="s">
+        <v>113</v>
+      </c>
+      <c r="O4" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="N5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="O5" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" t="s">
+        <v>135</v>
+      </c>
+      <c r="M6" t="s">
+        <v>136</v>
+      </c>
+      <c r="N6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O6" t="s">
+        <v>136</v>
+      </c>
+      <c r="P6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M7" t="s">
+        <v>146</v>
+      </c>
+      <c r="N7" t="s">
+        <v>147</v>
+      </c>
+      <c r="O7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="108.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="72.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" t="s">
-        <v>79</v>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M2" t="s">
+        <v>174</v>
+      </c>
+      <c r="N2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O2" t="s">
+        <v>174</v>
+      </c>
+      <c r="P2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="73.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M2" t="s">
+        <v>179</v>
+      </c>
+      <c r="N2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L3" t="s">
+        <v>192</v>
+      </c>
+      <c r="M3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K4" t="s">
+        <v>204</v>
+      </c>
+      <c r="L4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M4" t="s">
+        <v>206</v>
+      </c>
+      <c r="N4" t="s">
+        <v>207</v>
+      </c>
+      <c r="O4" t="s">
+        <v>206</v>
+      </c>
+      <c r="P4" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
